--- a/PythonResources/Data/Consumption/Sympheny/futu_1631_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1631_coo.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.8322865812735813</v>
+        <v>0.8322865812735812</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -407,7 +407,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.7575886349395776</v>
+        <v>0.7575886349395775</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.761097867556509</v>
+        <v>3.761097867556508</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.168173540257118</v>
+        <v>4.168173540257117</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.127297750210865</v>
+        <v>1.127297750210864</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.8229464072714443</v>
+        <v>0.8229464072714442</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.5036337878083621</v>
+        <v>0.503633787808362</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -711,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1.870836559557018</v>
+        <v>1.870836559557017</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.9933320477283772</v>
+        <v>0.993332047728377</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.8317971526390169</v>
+        <v>0.8317971526390168</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.7725733571463322</v>
+        <v>0.7725733571463321</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.820317560054652</v>
+        <v>0.8203175600546518</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.8992503828973121</v>
+        <v>0.899250382897312</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.8247781012630777</v>
+        <v>0.8247781012630776</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>8.284590735086642</v>
+        <v>8.28459073508664</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>3.765376704720965</v>
+        <v>3.765376704720964</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>8.538771246917626</v>
+        <v>8.538771246917625</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.5348253384530891</v>
+        <v>0.534825338453089</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>0.6878230741862443</v>
+        <v>0.6878230741862442</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>0.611129314078957</v>
+        <v>0.6111293140789569</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>0.7679486961562562</v>
+        <v>0.767948696156256</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>0.7074236652519151</v>
+        <v>0.707423665251915</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>0.5659905127043365</v>
+        <v>0.5659905127043364</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>0.5191489685950937</v>
+        <v>0.5191489685950936</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>0.4035998501820851</v>
+        <v>0.403599850182085</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>1.468394339977645</v>
+        <v>1.468394339977644</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>0.8045063775188724</v>
+        <v>0.8045063775188723</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.6331653254759034</v>
+        <v>0.6331653254759033</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>0.4924853654976845</v>
+        <v>0.4924853654976844</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>0.5354671640277574</v>
+        <v>0.5354671640277573</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>0.1907915907368451</v>
+        <v>0.190791590736845</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>0.9727965600493768</v>
+        <v>0.9727965600493766</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>1.539625255924285</v>
+        <v>1.539625255924284</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>3.885242759533455</v>
+        <v>3.885242759533454</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>0.7242137050568236</v>
+        <v>0.7242137050568235</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>0.7649652329826837</v>
+        <v>0.7649652329826836</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>5.528667915930814</v>
+        <v>5.528667915930813</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>20.60834513921168</v>
+        <v>20.60834513921167</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>8.724900663571447</v>
+        <v>8.724900663571445</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>8.668191417590476</v>
+        <v>8.668191417590474</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>3.792837461043533</v>
+        <v>3.792837461043532</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>8.017749554385487</v>
+        <v>8.017749554385485</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>4.51812966752263</v>
+        <v>4.518129667522629</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>6.970167126690508</v>
+        <v>6.970167126690507</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>0.8498386057790093</v>
+        <v>0.8498386057790092</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>0.8134567670395899</v>
+        <v>0.8134567670395898</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>7.067701168357004</v>
+        <v>7.067701168357003</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>5.302739452226784</v>
+        <v>5.302739452226783</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>3.321930916122483</v>
+        <v>3.321930916122482</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>0.5939319055303092</v>
+        <v>0.5939319055303091</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>0.5997376428061905</v>
+        <v>0.5997376428061904</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>0.5219741734077891</v>
+        <v>0.521974173407789</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>0.7481986388608681</v>
+        <v>0.748198638860868</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>0.6286491007701321</v>
+        <v>0.628649100770132</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>0.5625791658143184</v>
+        <v>0.5625791658143183</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>0.08811620383911339</v>
+        <v>0.0881162038391133</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>1.913402197212192</v>
+        <v>1.913402197212191</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>0.7201282947778844</v>
+        <v>0.7201282947778843</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>0.7511000421436155</v>
+        <v>0.7511000421436154</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>0.7433512438814095</v>
+        <v>0.7433512438814094</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>0.9280915038119752</v>
+        <v>0.928091503811975</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>0.8508672851247107</v>
+        <v>0.8508672851247105</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>4.375433378798421</v>
+        <v>4.37543337879842</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>6.092477980107511</v>
+        <v>6.09247798010751</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>11.51121494943646</v>
+        <v>11.51121494943645</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>18.21908349652506</v>
+        <v>18.21908349652505</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>18.90577824721246</v>
+        <v>18.90577824721245</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>5.071213331684321</v>
+        <v>5.07121333168432</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>0.7208580416641512</v>
+        <v>0.7208580416641511</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>5.534089730146049</v>
+        <v>5.534089730146048</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>2.043009933349785</v>
+        <v>2.043009933349784</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>0.9194957302480378</v>
+        <v>0.9194957302480375</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>0.7283665216746549</v>
+        <v>0.7283665216746548</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>0.8137146695536119</v>
+        <v>0.8137146695536118</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>7.905884338928451</v>
+        <v>7.90588433892845</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>7.289614558831374</v>
+        <v>7.289614558831373</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>20.9578616599192</v>
+        <v>20.95786165991919</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>11.31520903877975</v>
+        <v>11.31520903877974</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>0.992022020185561</v>
+        <v>0.9920220201855608</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>6.885176525478718</v>
+        <v>6.885176525478717</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>7.619348784429254</v>
+        <v>7.619348784429253</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>5.817196353492909</v>
+        <v>5.817196353492908</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>0.9598340280093854</v>
+        <v>0.9598340280093852</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>0.8801978346739381</v>
+        <v>0.880197834673938</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>0.9221743995414026</v>
+        <v>0.9221743995414023</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>0.7064711843762658</v>
+        <v>0.7064711843762657</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>0.6599608105407103</v>
+        <v>0.6599608105407102</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>0.5467914289616318</v>
+        <v>0.5467914289616317</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>816</v>
       </c>
       <c r="B816">
-        <v>1.120179054681781</v>
+        <v>1.12017905468178</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>0.6110706998712246</v>
+        <v>0.6110706998712245</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>0.9818202173297595</v>
+        <v>0.9818202173297594</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>0.8812323754404126</v>
+        <v>0.8812323754404124</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>17.54651476990114</v>
+        <v>17.54651476990113</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>1.410539186235509</v>
+        <v>1.410539186235508</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>6.974445963854963</v>
+        <v>6.974445963854962</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>3.669308018247776</v>
+        <v>3.669308018247775</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>2.11835556667923</v>
+        <v>2.118355566679229</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>1.637543220651427</v>
+        <v>1.637543220651426</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>0.9771955563396836</v>
+        <v>0.9771955563396834</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>4.530555879561871</v>
+        <v>4.53055587956187</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>0.7622719101373859</v>
+        <v>0.7622719101373858</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>0.8097435569797506</v>
+        <v>0.8097435569797505</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>0.6414533744492463</v>
+        <v>0.6414533744492462</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>0.8008840194810182</v>
+        <v>0.8008840194810181</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>0.5303237672992508</v>
+        <v>0.5303237672992507</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>0.0208658666608834</v>
+        <v>0.0208658666608833</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>0.5933105949283471</v>
+        <v>0.593310594928347</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>7.046863817508182</v>
+        <v>7.046863817508181</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>0.71045695050206</v>
+        <v>0.7104569505020599</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>0.5503639649229136</v>
+        <v>0.5503639649229135</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>0.3932778882004325</v>
+        <v>0.3932778882004324</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>1.027697557721807</v>
+        <v>1.027697557721806</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>0.3626461032395487</v>
+        <v>0.3626461032395486</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>18.08125218704263</v>
+        <v>18.08125218704262</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>1.011783800322496</v>
+        <v>1.011783800322495</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>1.348141431394122</v>
+        <v>1.348141431394121</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>0.8755321437384495</v>
+        <v>0.8755321437384493</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>0.4608131783495529</v>
+        <v>0.4608131783495528</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>1142</v>
       </c>
       <c r="B1142">
-        <v>6.625281128393837</v>
+        <v>6.625281128393836</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>1143</v>
       </c>
       <c r="B1143">
-        <v>4.192586357777608</v>
+        <v>4.192586357777607</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>4.314005689095003</v>
+        <v>4.314005689095002</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>2.356856777941833</v>
+        <v>2.356856777941832</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>1.084849340971156</v>
+        <v>1.084849340971155</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>0.7323288421173563</v>
+        <v>0.7323288421173562</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>2.986628340790038</v>
+        <v>2.986628340790037</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>4.035617509470591</v>
+        <v>4.03561750947059</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>0.9946420752711934</v>
+        <v>0.9946420752711932</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>0.6613441058431918</v>
+        <v>0.6613441058431917</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>3.235328424198056</v>
+        <v>3.235328424198055</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>0.3042839366005284</v>
+        <v>0.3042839366005283</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>0.9141676987651746</v>
+        <v>0.9141676987651745</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>0.8660747413208478</v>
+        <v>0.8660747413208477</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>0.2101037999004731</v>
+        <v>0.210103799900473</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>0.9351105551879144</v>
+        <v>0.9351105551879142</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>0.9643238763216772</v>
+        <v>0.964323876321677</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>0.8255899080401696</v>
+        <v>0.8255899080401695</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>3.481127104323326</v>
+        <v>3.481127104323325</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>0.768238836484531</v>
+        <v>0.7682388364845308</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>24.49807188563665</v>
+        <v>24.49807188563664</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>1.521035759941996</v>
+        <v>1.521035759941995</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>1.369688014156504</v>
+        <v>1.369688014156503</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>9.008183129541504</v>
+        <v>9.008183129541502</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>0.4947801117304028</v>
+        <v>0.4947801117304027</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>6.982065810860158</v>
+        <v>6.982065810860157</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>4.120080582812791</v>
+        <v>4.12008058281279</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>0.7458540705515774</v>
+        <v>0.7458540705515773</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>0.0263934209068673</v>
+        <v>0.0263934209068672</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>0.9012461966705958</v>
+        <v>0.9012461966705956</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>0.8135065891161624</v>
+        <v>0.8135065891161622</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.7135576420910972</v>
+        <v>0.7135576420910971</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>3.868244639291097</v>
+        <v>3.868244639291096</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>0.6135237044648201</v>
+        <v>0.61352370446482</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>8.023464439639383</v>
+        <v>8.023464439639381</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>1.80978986220386</v>
+        <v>1.809789862203859</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>18.98054066917497</v>
+        <v>18.98054066917496</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>0.7071511091859601</v>
+        <v>0.70715110918596</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>0.7811515464479498</v>
+        <v>0.7811515464479497</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13127,7 +13127,7 @@
         <v>1598</v>
       </c>
       <c r="B1598">
-        <v>0.5013331801548705</v>
+        <v>0.5013331801548704</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>3.291861827555829</v>
+        <v>3.291861827555828</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>6.856250413962843</v>
+        <v>6.856250413962842</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>1.1327195644261</v>
+        <v>1.132719564426099</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13767,7 +13767,7 @@
         <v>1678</v>
       </c>
       <c r="B1678">
-        <v>7.867257576032886</v>
+        <v>7.867257576032885</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>4.599310345231823</v>
+        <v>4.599310345231822</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>2.573574018900738</v>
+        <v>2.573574018900737</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>1.128839303874224</v>
+        <v>1.128839303874223</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>0.9196129586635023</v>
+        <v>0.9196129586635022</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>14.14853191924604</v>
+        <v>14.14853191924603</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>19.46835741302678</v>
+        <v>19.46835741302677</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>0.9256971134261121</v>
+        <v>0.9256971134261118</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>14.4627919940026</v>
+        <v>14.46279199400259</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14671,7 +14671,7 @@
         <v>1791</v>
       </c>
       <c r="B1791">
-        <v>15.88277979052455</v>
+        <v>15.88277979052454</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>27.15783809700769</v>
+        <v>27.15783809700768</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>0.7251925623259525</v>
+        <v>0.7251925623259524</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>4.522848111245078</v>
+        <v>4.522848111245077</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>10.49053644309059</v>
+        <v>10.49053644309058</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>9.025327785303192</v>
+        <v>9.02532778530319</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>2.66490667738916</v>
+        <v>2.664906677389159</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>8.34071383899029</v>
+        <v>8.340713838990288</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>22.71391401647412</v>
+        <v>22.71391401647411</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>27.46732111383407</v>
+        <v>27.46732111383406</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>6.866830278458517</v>
+        <v>6.866830278458516</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>7.138419209985986</v>
+        <v>7.138419209985985</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15263,7 +15263,7 @@
         <v>1865</v>
       </c>
       <c r="B1865">
-        <v>29.49379011776181</v>
+        <v>29.4937901177618</v>
       </c>
     </row>
     <row r="1866" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>37.24053688269715</v>
+        <v>37.24053688269714</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>2.790065595159874</v>
+        <v>2.790065595159873</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>15.87231715444434</v>
+        <v>15.87231715444433</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>7.500127485901818</v>
+        <v>7.500127485901817</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>0.7278770930400904</v>
+        <v>0.7278770930400903</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>9.855979030181045</v>
+        <v>9.855979030181039</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15719,7 +15719,7 @@
         <v>1922</v>
       </c>
       <c r="B1922">
-        <v>1.530164922796297</v>
+        <v>1.530164922796296</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>28.96875335200001</v>
+        <v>28.968753352</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>3.630300263001951</v>
+        <v>3.63030026300195</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>36.74378147216617</v>
+        <v>36.74378147216616</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>33.3552941231637</v>
+        <v>33.35529412316369</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>6.259118172690352</v>
+        <v>6.259118172690351</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>0.8176242372093542</v>
+        <v>0.8176242372093541</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>0.7032708486340838</v>
+        <v>0.7032708486340837</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>7.788743844775511</v>
+        <v>7.78874384477551</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>6.664406112055127</v>
+        <v>6.664406112055126</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>19.4784683638606</v>
+        <v>19.47846836386059</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>8.907044314099473</v>
+        <v>8.907044314099471</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>7.691590795459275</v>
+        <v>7.691590795459274</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>3.500499099978841</v>
+        <v>3.50049909997884</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>42.17761159998617</v>
+        <v>42.17761159998616</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>22.94517637308178</v>
+        <v>22.94517637308177</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>2.577583230709625</v>
+        <v>2.577583230709624</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>2.241673998327151</v>
+        <v>2.24167399832715</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>8.425411369163418</v>
+        <v>8.425411369163417</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>2.010871763250182</v>
+        <v>2.010871763250181</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>0.6996162527819769</v>
+        <v>0.6996162527819768</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>0.7279767371932353</v>
+        <v>0.7279767371932352</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18287,7 +18287,7 @@
         <v>2243</v>
       </c>
       <c r="B2243">
-        <v>5.520842919198557</v>
+        <v>5.520842919198556</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>4.785058769535383</v>
+        <v>4.785058769535382</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>4.127114287740663</v>
+        <v>4.127114287740662</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>0.3639971607277775</v>
+        <v>0.3639971607277774</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18695,7 +18695,7 @@
         <v>2294</v>
       </c>
       <c r="B2294">
-        <v>0.4435630170139461</v>
+        <v>0.443563017013946</v>
       </c>
     </row>
     <row r="2295" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>25.57818519862304</v>
+        <v>25.57818519862303</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>34.93729158985764</v>
+        <v>34.93729158985763</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>21.17271203836183</v>
+        <v>21.17271203836182</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>30.85012288468652</v>
+        <v>30.85012288468651</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19087,7 +19087,7 @@
         <v>2343</v>
       </c>
       <c r="B2343">
-        <v>45.28826760433769</v>
+        <v>45.28826760433768</v>
       </c>
     </row>
     <row r="2344" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>60.75245403034224</v>
+        <v>60.75245403034223</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19127,7 +19127,7 @@
         <v>2348</v>
       </c>
       <c r="B2348">
-        <v>42.55743166609128</v>
+        <v>42.55743166609127</v>
       </c>
     </row>
     <row r="2349" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>3.469814562230998</v>
+        <v>3.469814562230997</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>51.13767246497948</v>
+        <v>51.13767246497947</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>60.84418526544324</v>
+        <v>60.84418526544323</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>2.997090976870248</v>
+        <v>2.997090976870247</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>0.8778093057088481</v>
+        <v>0.877809305708848</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -20055,7 +20055,7 @@
         <v>2464</v>
       </c>
       <c r="B2464">
-        <v>43.11045671604524</v>
+        <v>43.11045671604523</v>
       </c>
     </row>
     <row r="2465" spans="1:2">
@@ -20071,7 +20071,7 @@
         <v>2466</v>
       </c>
       <c r="B2466">
-        <v>82.14429528431116</v>
+        <v>82.14429528431114</v>
       </c>
     </row>
     <row r="2467" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>7.07561408640086</v>
+        <v>7.075614086400859</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>2.222621450103777</v>
+        <v>2.222621450103776</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>49.03342240739102</v>
+        <v>49.03342240739101</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>8.681496842745702</v>
+        <v>8.6814968427457</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>85.6831280761469</v>
+        <v>85.68312807614689</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>33.4470253582647</v>
+        <v>33.44702535826469</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>5.187591841136741</v>
+        <v>5.18759184113674</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>59.32871492452542</v>
+        <v>59.32871492452541</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20687,7 +20687,7 @@
         <v>2543</v>
       </c>
       <c r="B2543">
-        <v>45.6604678234376</v>
+        <v>45.66046782343759</v>
       </c>
     </row>
     <row r="2544" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>4.296128355736661</v>
+        <v>4.29612835573666</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20871,7 +20871,7 @@
         <v>2566</v>
       </c>
       <c r="B2566">
-        <v>56.60286119393625</v>
+        <v>56.60286119393624</v>
       </c>
     </row>
     <row r="2567" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>59.57811837842623</v>
+        <v>59.57811837842622</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21071,7 +21071,7 @@
         <v>2591</v>
       </c>
       <c r="B2591">
-        <v>32.42010443879534</v>
+        <v>32.42010443879533</v>
       </c>
     </row>
     <row r="2592" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>47.32892124653664</v>
+        <v>47.32892124653663</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>31.29734928968373</v>
+        <v>31.29734928968372</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>6.48627753475676</v>
+        <v>6.486277534756759</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>57.71330735942409</v>
+        <v>57.71330735942408</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>27.702686464983</v>
+        <v>27.70268646498299</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>39.79318562943747</v>
+        <v>39.79318562943746</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>55.5630451487658</v>
+        <v>55.56304514876579</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>43.61453890254275</v>
+        <v>43.61453890254274</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>45.13792216150442</v>
+        <v>45.13792216150441</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22367,7 +22367,7 @@
         <v>2753</v>
       </c>
       <c r="B2753">
-        <v>67.00600385329803</v>
+        <v>67.00600385329801</v>
       </c>
     </row>
     <row r="2754" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>78.46566760703395</v>
+        <v>78.46566760703394</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>82.20320256308209</v>
+        <v>82.20320256308207</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>67.7014614280414</v>
+        <v>67.70146142804138</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>3.917304731163006</v>
+        <v>3.917304731163005</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22847,7 +22847,7 @@
         <v>2813</v>
       </c>
       <c r="B2813">
-        <v>6.465410876804073</v>
+        <v>6.465410876804072</v>
       </c>
     </row>
     <row r="2814" spans="1:2">
@@ -22927,7 +22927,7 @@
         <v>2823</v>
       </c>
       <c r="B2823">
-        <v>24.86215403696564</v>
+        <v>24.86215403696563</v>
       </c>
     </row>
     <row r="2824" spans="1:2">
@@ -22935,7 +22935,7 @@
         <v>2824</v>
       </c>
       <c r="B2824">
-        <v>28.95808556619274</v>
+        <v>28.95808556619273</v>
       </c>
     </row>
     <row r="2825" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>29.59812340752525</v>
+        <v>29.59812340752524</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>44.42986253209861</v>
+        <v>44.4298625320986</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>7.125260320350092</v>
+        <v>7.125260320350091</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>1.948450562725702</v>
+        <v>1.948450562725701</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>6.392260345554201</v>
+        <v>6.3922603455542</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>1.779876101287696</v>
+        <v>1.779876101287695</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>35.37572586369501</v>
+        <v>35.375725863695</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>6.582961670411138</v>
+        <v>6.582961670411137</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>46.05025230485719</v>
+        <v>46.05025230485718</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>48.46017545576943</v>
+        <v>48.46017545576942</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>21.59104163894704</v>
+        <v>21.59104163894703</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -23719,7 +23719,7 @@
         <v>2922</v>
       </c>
       <c r="B2922">
-        <v>74.3817226832881</v>
+        <v>74.38172268328809</v>
       </c>
     </row>
     <row r="2923" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>55.46134949835031</v>
+        <v>55.4613494983503</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -23919,7 +23919,7 @@
         <v>2947</v>
       </c>
       <c r="B2947">
-        <v>99.61865596449388</v>
+        <v>99.61865596449384</v>
       </c>
     </row>
     <row r="2948" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>77.61722695010936</v>
+        <v>77.61722695010934</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>60.17188030275411</v>
+        <v>60.1718803027541</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>30.68864074238412</v>
+        <v>30.68864074238411</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -24087,7 +24087,7 @@
         <v>2968</v>
       </c>
       <c r="B2968">
-        <v>77.07944159416579</v>
+        <v>77.07944159416577</v>
       </c>
     </row>
     <row r="2969" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>86.52101817567969</v>
+        <v>86.52101817567967</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24311,7 +24311,7 @@
         <v>2996</v>
       </c>
       <c r="B2996">
-        <v>123.4951534842337</v>
+        <v>123.4951534842336</v>
       </c>
     </row>
     <row r="2997" spans="1:2">
@@ -24335,7 +24335,7 @@
         <v>2999</v>
       </c>
       <c r="B2999">
-        <v>80.20563036356636</v>
+        <v>80.20563036356634</v>
       </c>
     </row>
     <row r="3000" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>41.86930086731444</v>
+        <v>41.86930086731443</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24375,7 +24375,7 @@
         <v>3004</v>
       </c>
       <c r="B3004">
-        <v>35.44694212608972</v>
+        <v>35.44694212608971</v>
       </c>
     </row>
     <row r="3005" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>18.76167521750268</v>
+        <v>18.76167521750267</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>72.5113433145514</v>
+        <v>72.51134331455138</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24471,7 +24471,7 @@
         <v>3016</v>
       </c>
       <c r="B3016">
-        <v>72.46093509590165</v>
+        <v>72.46093509590163</v>
       </c>
     </row>
     <row r="3017" spans="1:2">
@@ -24511,7 +24511,7 @@
         <v>3021</v>
       </c>
       <c r="B3021">
-        <v>93.58022028391552</v>
+        <v>93.58022028391549</v>
       </c>
     </row>
     <row r="3022" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>5.81385534365217</v>
+        <v>5.813855343652169</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>18.6943274928183</v>
+        <v>18.69432749281829</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>73.32666694410726</v>
+        <v>73.32666694410725</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>5.784255168747374</v>
+        <v>5.784255168747373</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>67.21525657490223</v>
+        <v>67.21525657490221</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>4.065540062517915</v>
+        <v>4.065540062517914</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>73.33721750149907</v>
+        <v>73.33721750149905</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25431,7 +25431,7 @@
         <v>3136</v>
       </c>
       <c r="B3136">
-        <v>57.57585704229192</v>
+        <v>57.57585704229191</v>
       </c>
     </row>
     <row r="3137" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>52.74047797541838</v>
+        <v>52.74047797541837</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>5.630187723723105</v>
+        <v>5.630187723723104</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>7.708999215155759</v>
+        <v>7.708999215155758</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>37.8876377360614</v>
+        <v>37.88763773606139</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>46.501288633357</v>
+        <v>46.50128863335699</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25671,7 +25671,7 @@
         <v>3166</v>
       </c>
       <c r="B3166">
-        <v>36.91962409536298</v>
+        <v>36.91962409536297</v>
       </c>
     </row>
     <row r="3167" spans="1:2">
@@ -25679,7 +25679,7 @@
         <v>3167</v>
       </c>
       <c r="B3167">
-        <v>25.35697517864146</v>
+        <v>25.35697517864145</v>
       </c>
     </row>
     <row r="3168" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>8.360525441203796</v>
+        <v>8.360525441203794</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>56.22538569614044</v>
+        <v>56.22538569614043</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25951,7 +25951,7 @@
         <v>3201</v>
       </c>
       <c r="B3201">
-        <v>9.926579843394562</v>
+        <v>9.92657984339456</v>
       </c>
     </row>
     <row r="3202" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>6.453160507388028</v>
+        <v>6.453160507388027</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>48.36082437366324</v>
+        <v>48.36082437366323</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>58.01165367678134</v>
+        <v>58.01165367678133</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26239,7 +26239,7 @@
         <v>3237</v>
       </c>
       <c r="B3237">
-        <v>65.1918941239843</v>
+        <v>65.19189412398428</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>18.63172751896024</v>
+        <v>18.63172751896023</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>37.82404132067189</v>
+        <v>37.82404132067188</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>86.0137122077569</v>
+        <v>86.01371220775688</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>46.80432408733283</v>
+        <v>46.80432408733282</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>56.10845035171456</v>
+        <v>56.10845035171455</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>60.07780449934382</v>
+        <v>60.07780449934381</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>22.10907400688483</v>
+        <v>22.10907400688482</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>43.22739206047111</v>
+        <v>43.2273920604711</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>78.80943993538371</v>
+        <v>78.80943993538369</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>50.51636186301743</v>
+        <v>50.51636186301742</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27039,7 +27039,7 @@
         <v>3337</v>
       </c>
       <c r="B3337">
-        <v>31.47055427353258</v>
+        <v>31.47055427353257</v>
       </c>
     </row>
     <row r="3338" spans="1:2">
@@ -27151,7 +27151,7 @@
         <v>3351</v>
       </c>
       <c r="B3351">
-        <v>43.59197243256583</v>
+        <v>43.59197243256582</v>
       </c>
     </row>
     <row r="3352" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>9.589167156583754</v>
+        <v>9.589167156583752</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>12.20174893073032</v>
+        <v>12.20174893073031</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>6.560014208083955</v>
+        <v>6.560014208083954</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>84.82736064325577</v>
+        <v>84.82736064325576</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>45.69592941911562</v>
+        <v>45.69592941911561</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>76.60847643503701</v>
+        <v>76.60847643503699</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>20.84646535812402</v>
+        <v>20.84646535812401</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>7.886658878792267</v>
+        <v>7.886658878792266</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28159,7 +28159,7 @@
         <v>3477</v>
       </c>
       <c r="B3477">
-        <v>55.55044309410336</v>
+        <v>55.55044309410335</v>
       </c>
     </row>
     <row r="3478" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>5.941663623612382</v>
+        <v>5.941663623612381</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>6.65907221915149</v>
+        <v>6.659072219151489</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>50.40177108690085</v>
+        <v>50.40177108690084</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>96.06985875734364</v>
+        <v>96.06985875734362</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28391,7 +28391,7 @@
         <v>3506</v>
       </c>
       <c r="B3506">
-        <v>48.997960811713</v>
+        <v>48.99796081171299</v>
       </c>
     </row>
     <row r="3507" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>3561</v>
       </c>
       <c r="B3561">
-        <v>40.77145675648904</v>
+        <v>40.77145675648903</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>97.48334037680731</v>
+        <v>97.48334037680728</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>88.92859675828264</v>
+        <v>88.92859675828262</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28967,7 +28967,7 @@
         <v>3578</v>
       </c>
       <c r="B3578">
-        <v>44.84778183322969</v>
+        <v>44.84778183322968</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>86.06470656848397</v>
+        <v>86.06470656848396</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>32.11208677716227</v>
+        <v>32.11208677716226</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>90.90565398509209</v>
+        <v>90.90565398509206</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>77.55099289537189</v>
+        <v>77.55099289537188</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>43.07704661763784</v>
+        <v>43.07704661763783</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29367,7 +29367,7 @@
         <v>3628</v>
       </c>
       <c r="B3628">
-        <v>26.19794252408019</v>
+        <v>26.19794252408018</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>41.691406746847</v>
+        <v>41.69140674684699</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>58.9263283884434</v>
+        <v>58.92632838844339</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>57.33407343539631</v>
+        <v>57.3340734353963</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>92.63828996565796</v>
+        <v>92.63828996565792</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>105.0146799283266</v>
+        <v>105.0146799283265</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>51.6986104329773</v>
+        <v>51.69861043297729</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>18.92101794122285</v>
+        <v>18.92101794122284</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>89.66772191778655</v>
+        <v>89.66772191778654</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -30119,7 +30119,7 @@
         <v>3722</v>
       </c>
       <c r="B3722">
-        <v>77.37280570386579</v>
+        <v>77.37280570386578</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>74.11678646433825</v>
+        <v>74.11678646433823</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30239,7 +30239,7 @@
         <v>3737</v>
       </c>
       <c r="B3737">
-        <v>89.10942158913669</v>
+        <v>89.10942158913667</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
@@ -30263,7 +30263,7 @@
         <v>3740</v>
       </c>
       <c r="B3740">
-        <v>138.9112762598978</v>
+        <v>138.9112762598977</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>92.8601447419246</v>
+        <v>92.86014474192456</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>55.4713139136648</v>
+        <v>55.47131391366479</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>80.06788697539552</v>
+        <v>80.06788697539551</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>70.89124661283148</v>
+        <v>70.89124661283147</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>46.1267438459478</v>
+        <v>46.12674384594779</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30879,7 +30879,7 @@
         <v>3817</v>
       </c>
       <c r="B3817">
-        <v>60.17188030275411</v>
+        <v>60.1718803027541</v>
       </c>
     </row>
     <row r="3818" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>45.35713929842311</v>
+        <v>45.3571392984231</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>36.7845183465401</v>
+        <v>36.78451834654009</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30991,7 +30991,7 @@
         <v>3831</v>
       </c>
       <c r="B3831">
-        <v>66.62647685823158</v>
+        <v>66.62647685823157</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>89.9221075793446</v>
+        <v>89.92210757934458</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31239,7 +31239,7 @@
         <v>3862</v>
       </c>
       <c r="B3862">
-        <v>84.8036218891242</v>
+        <v>84.80362188912419</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31263,7 +31263,7 @@
         <v>3865</v>
       </c>
       <c r="B3865">
-        <v>58.74257284720273</v>
+        <v>58.74257284720272</v>
       </c>
     </row>
     <row r="3866" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>9.32156399118208</v>
+        <v>9.321563991182078</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>21.91210096180054</v>
+        <v>21.91210096180053</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>148.4249483169224</v>
+        <v>148.4249483169223</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>6.337045761870404</v>
+        <v>6.337045761870403</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31631,7 +31631,7 @@
         <v>3911</v>
       </c>
       <c r="B3911">
-        <v>70.25411017478172</v>
+        <v>70.2541101747817</v>
       </c>
     </row>
     <row r="3912" spans="1:2">
@@ -31663,7 +31663,7 @@
         <v>3915</v>
       </c>
       <c r="B3915">
-        <v>30.86184572623297</v>
+        <v>30.86184572623296</v>
       </c>
     </row>
     <row r="3916" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>79.68103320436255</v>
+        <v>79.68103320436254</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>63.74119248261064</v>
+        <v>63.74119248261063</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32167,7 +32167,7 @@
         <v>3978</v>
       </c>
       <c r="B3978">
-        <v>123.3632715168361</v>
+        <v>123.363271516836</v>
       </c>
     </row>
     <row r="3979" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>3.524296468318142</v>
+        <v>3.524296468318141</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>67.32720971167086</v>
+        <v>67.32720971167085</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32391,7 +32391,7 @@
         <v>4006</v>
       </c>
       <c r="B4006">
-        <v>72.04037815542262</v>
+        <v>72.0403781554226</v>
       </c>
     </row>
     <row r="4007" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>8.547035850207877</v>
+        <v>8.547035850207875</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>45.88701173632282</v>
+        <v>45.88701173632281</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>86.11892471063632</v>
+        <v>86.11892471063631</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>5.26039068714022</v>
+        <v>5.260390687140219</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>47.30635477655972</v>
+        <v>47.30635477655971</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32703,7 +32703,7 @@
         <v>4045</v>
       </c>
       <c r="B4045">
-        <v>52.31493882728211</v>
+        <v>52.3149388272821</v>
       </c>
     </row>
     <row r="4046" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>68.34856228140565</v>
+        <v>68.34856228140563</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>64.10166986016409</v>
+        <v>64.10166986016408</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>86.32495365081525</v>
+        <v>86.32495365081523</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>89.61145227836357</v>
+        <v>89.61145227836356</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -33007,7 +33007,7 @@
         <v>4083</v>
       </c>
       <c r="B4083">
-        <v>54.0118201411313</v>
+        <v>54.01182014113129</v>
       </c>
     </row>
     <row r="4084" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>31.88700821947036</v>
+        <v>31.88700821947035</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>65.81848000464225</v>
+        <v>65.81848000464224</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>89.55254499959264</v>
+        <v>89.55254499959263</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>21.77324390368279</v>
+        <v>21.77324390368278</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>80.07843753278733</v>
+        <v>80.07843753278732</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>50.61336837681434</v>
+        <v>50.61336837681433</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33399,7 +33399,7 @@
         <v>4132</v>
       </c>
       <c r="B4132">
-        <v>38.40490811929868</v>
+        <v>38.40490811929867</v>
       </c>
     </row>
     <row r="4133" spans="1:2">
@@ -33527,7 +33527,7 @@
         <v>4148</v>
       </c>
       <c r="B4148">
-        <v>136.238761458345</v>
+        <v>136.2387614583449</v>
       </c>
     </row>
     <row r="4149" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>104.8364927368205</v>
+        <v>104.8364927368204</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>44.87855429228913</v>
+        <v>44.87855429228912</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>49.49471622224398</v>
+        <v>49.49471622224397</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>79.99432614469153</v>
+        <v>79.99432614469151</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>55.76174731297819</v>
+        <v>55.76174731297818</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33759,7 +33759,7 @@
         <v>4177</v>
       </c>
       <c r="B4177">
-        <v>39.11560538805244</v>
+        <v>39.11560538805243</v>
       </c>
     </row>
     <row r="4178" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>70.85812958546275</v>
+        <v>70.85812958546273</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>41.69609588346558</v>
+        <v>41.69609588346557</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>50.05272347985518</v>
+        <v>50.05272347985517</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>5.39124690590251</v>
+        <v>5.391246905902509</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>89.84796060656328</v>
+        <v>89.84796060656326</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>88.97431584031381</v>
+        <v>88.97431584031379</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>53.96610105910013</v>
+        <v>53.96610105910012</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>42.6186835131715</v>
+        <v>42.61868351317149</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>78.02195805450067</v>
+        <v>78.02195805450066</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>124.893395409687</v>
+        <v>124.8933954096869</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34559,7 +34559,7 @@
         <v>4277</v>
       </c>
       <c r="B4277">
-        <v>67.06432498999163</v>
+        <v>67.06432498999162</v>
       </c>
     </row>
     <row r="4278" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>208.7750158111826</v>
+        <v>208.7750158111825</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>10.89556061852057</v>
+        <v>10.89556061852056</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>94.95853337873982</v>
+        <v>94.9585333787398</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>114.502561733949</v>
+        <v>114.5025617339489</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>103.8045896096939</v>
+        <v>103.8045896096938</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>108.8457045457077</v>
+        <v>108.8457045457076</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>70.71569706067334</v>
+        <v>70.71569706067332</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35279,7 +35279,7 @@
         <v>4367</v>
       </c>
       <c r="B4367">
-        <v>96.99244638704955</v>
+        <v>96.99244638704954</v>
       </c>
     </row>
     <row r="4368" spans="1:2">
@@ -35287,7 +35287,7 @@
         <v>4368</v>
       </c>
       <c r="B4368">
-        <v>88.1669051288018</v>
+        <v>88.16690512880179</v>
       </c>
     </row>
     <row r="4369" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>22.43836862592472</v>
+        <v>22.43836862592471</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>61.16304655550678</v>
+        <v>61.16304655550677</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>98.41647856390505</v>
+        <v>98.41647856390502</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>90.74534412694432</v>
+        <v>90.7453441269443</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>72.90874764297618</v>
+        <v>72.90874764297617</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>73.87441671536531</v>
+        <v>73.8744167153653</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>63.68756048253561</v>
+        <v>63.6875604825356</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>179.0725591138939</v>
+        <v>179.0725591138938</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>58.88529844303081</v>
+        <v>58.8852984430308</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -35727,7 +35727,7 @@
         <v>4423</v>
       </c>
       <c r="B4423">
-        <v>10.92923448086276</v>
+        <v>10.92923448086275</v>
       </c>
     </row>
     <row r="4424" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>50.16995189531972</v>
+        <v>50.16995189531971</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>75.12289934006265</v>
+        <v>75.12289934006263</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35807,7 +35807,7 @@
         <v>4433</v>
       </c>
       <c r="B4433">
-        <v>80.07521375136206</v>
+        <v>80.07521375136204</v>
       </c>
     </row>
     <row r="4434" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>47.79783490839479</v>
+        <v>47.79783490839478</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>90.56129551466501</v>
+        <v>90.56129551466498</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>47.84912234016053</v>
+        <v>47.84912234016052</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>50.22856610305199</v>
+        <v>50.22856610305198</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>42.56505151309647</v>
+        <v>42.56505151309646</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>51.9556337338833</v>
+        <v>51.95563373388329</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>7.741647328862633</v>
+        <v>7.741647328862632</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>45.5816317140377</v>
+        <v>45.58163171403769</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>70.54219900578582</v>
+        <v>70.5421990057858</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>81.96552195072773</v>
+        <v>81.96552195072772</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>88.60533940263917</v>
+        <v>88.60533940263916</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>51.58607115413134</v>
+        <v>51.58607115413133</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36471,7 +36471,7 @@
         <v>4516</v>
       </c>
       <c r="B4516">
-        <v>46.43739914692883</v>
+        <v>46.43739914692882</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>46.21085523404361</v>
+        <v>46.2108552340436</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36495,7 +36495,7 @@
         <v>4519</v>
       </c>
       <c r="B4519">
-        <v>12.5260320350091</v>
+        <v>12.52603203500909</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
@@ -36503,7 +36503,7 @@
         <v>4520</v>
       </c>
       <c r="B4520">
-        <v>33.42387274621045</v>
+        <v>33.42387274621044</v>
       </c>
     </row>
     <row r="4521" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>62.48538308194677</v>
+        <v>62.48538308194676</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>66.45297880334407</v>
+        <v>66.45297880334405</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36655,7 +36655,7 @@
         <v>4539</v>
       </c>
       <c r="B4539">
-        <v>60.04966967963233</v>
+        <v>60.04966967963232</v>
       </c>
     </row>
     <row r="4540" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>9.783268105489164</v>
+        <v>9.783268105489162</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>45.47466078492631</v>
+        <v>45.4746607849263</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>65.29915812413435</v>
+        <v>65.29915812413434</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>68.85850588867639</v>
+        <v>68.85850588867638</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>57.38213708573677</v>
+        <v>57.38213708573676</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>56.43463841774464</v>
+        <v>56.43463841774463</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>8.955195885751532</v>
+        <v>8.955195885751531</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>69.30895607509888</v>
+        <v>69.30895607509886</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>32.81750876722013</v>
+        <v>32.81750876722012</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>122.4664741385324</v>
+        <v>122.4664741385323</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>90.854659624365</v>
+        <v>90.85465962436498</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>60.88814592124244</v>
+        <v>60.88814592124243</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>60.01420808395431</v>
+        <v>60.0142080839543</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>39.78556578243227</v>
+        <v>39.78556578243226</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>37.52335043500535</v>
+        <v>37.52335043500534</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>10.36984978936985</v>
+        <v>10.36984978936984</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37599,7 +37599,7 @@
         <v>4657</v>
       </c>
       <c r="B4657">
-        <v>73.2657081680657</v>
+        <v>73.26570816806569</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>55.33122595718467</v>
+        <v>55.33122595718466</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>7.917958865721299</v>
+        <v>7.917958865721298</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37815,7 +37815,7 @@
         <v>4684</v>
       </c>
       <c r="B4684">
-        <v>71.84372748848085</v>
+        <v>71.84372748848084</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>81.99658748082584</v>
+        <v>81.99658748082582</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>215.8978143348079</v>
+        <v>215.8978143348078</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -37991,7 +37991,7 @@
         <v>4706</v>
       </c>
       <c r="B4706">
-        <v>94.01132778178636</v>
+        <v>94.01132778178632</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38143,7 +38143,7 @@
         <v>4725</v>
       </c>
       <c r="B4725">
-        <v>164.4125596179761</v>
+        <v>164.412559617976</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>70.41764381435475</v>
+        <v>70.41764381435473</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>146.3368171664603</v>
+        <v>146.3368171664602</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38399,7 +38399,7 @@
         <v>4757</v>
       </c>
       <c r="B4757">
-        <v>52.92364737458172</v>
+        <v>52.92364737458171</v>
       </c>
     </row>
     <row r="4758" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>78.74056824129829</v>
+        <v>78.74056824129828</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>130.7108555271147</v>
+        <v>130.7108555271146</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>76.92645851198456</v>
+        <v>76.92645851198455</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38583,7 +38583,7 @@
         <v>4780</v>
       </c>
       <c r="B4780">
-        <v>50.14943692261343</v>
+        <v>50.14943692261342</v>
       </c>
     </row>
     <row r="4781" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>51.97116649893235</v>
+        <v>51.97116649893234</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>86.10368501662593</v>
+        <v>86.10368501662592</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>117.1387357267078</v>
+        <v>117.1387357267077</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38735,7 +38735,7 @@
         <v>4799</v>
       </c>
       <c r="B4799">
-        <v>87.99604471326224</v>
+        <v>87.99604471326222</v>
       </c>
     </row>
     <row r="4800" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>58.33256646411551</v>
+        <v>58.3325664641155</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>61.5677776598981</v>
+        <v>61.56777765989809</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>77.70133833820516</v>
+        <v>77.70133833820515</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>56.56183124852366</v>
+        <v>56.56183124852365</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>87.01044681024413</v>
+        <v>87.01044681024412</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>28.58922635693357</v>
+        <v>28.58922635693356</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>60.07780449934382</v>
+        <v>60.07780449934381</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>84.87776886190552</v>
+        <v>84.87776886190551</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>77.18875709158647</v>
+        <v>77.18875709158645</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>52.62823176761109</v>
+        <v>52.62823176761108</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>86.97410600145012</v>
+        <v>86.97410600145011</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>55.20374005536699</v>
+        <v>55.20374005536698</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>36.59079838998495</v>
+        <v>36.59079838998494</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>57.21684501993177</v>
+        <v>57.21684501993176</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>108.8184489391122</v>
+        <v>108.8184489391121</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>87.8788162977977</v>
+        <v>87.87881629779768</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39719,7 +39719,7 @@
         <v>4922</v>
       </c>
       <c r="B4922">
-        <v>70.11431528934025</v>
+        <v>70.11431528934024</v>
       </c>
     </row>
     <row r="4923" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>8.368145288208991</v>
+        <v>8.368145288208989</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>32.20352494122461</v>
+        <v>32.2035249412246</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39879,7 +39879,7 @@
         <v>4942</v>
       </c>
       <c r="B4942">
-        <v>132.5873893876633</v>
+        <v>132.5873893876632</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>73.35187105343213</v>
+        <v>73.35187105343212</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>97.13956804845756</v>
+        <v>97.13956804845752</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>95.05583296357538</v>
+        <v>95.05583296357536</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>81.04615810244709</v>
+        <v>81.04615810244708</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>219.9635888541568</v>
+        <v>219.9635888541567</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40311,7 +40311,7 @@
         <v>4996</v>
       </c>
       <c r="B4996">
-        <v>76.81714301456388</v>
+        <v>76.81714301456387</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40351,7 +40351,7 @@
         <v>5001</v>
       </c>
       <c r="B5001">
-        <v>76.04284933042061</v>
+        <v>76.04284933042059</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40503,7 +40503,7 @@
         <v>5020</v>
       </c>
       <c r="B5020">
-        <v>75.78523988743729</v>
+        <v>75.78523988743727</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>77.37280570386579</v>
+        <v>77.37280570386578</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>76.42970310145358</v>
+        <v>76.42970310145357</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>75.94349824831441</v>
+        <v>75.9434982483144</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40903,7 +40903,7 @@
         <v>5070</v>
       </c>
       <c r="B5070">
-        <v>80.70766105279324</v>
+        <v>80.70766105279323</v>
       </c>
     </row>
     <row r="5071" spans="1:2">
@@ -40919,7 +40919,7 @@
         <v>5072</v>
       </c>
       <c r="B5072">
-        <v>27.70746352291318</v>
+        <v>27.70746352291317</v>
       </c>
     </row>
     <row r="5073" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>82.7808455802836</v>
+        <v>82.78084558028358</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>109.766240678143</v>
+        <v>109.7662406781429</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41223,7 +41223,7 @@
         <v>5110</v>
       </c>
       <c r="B5110">
-        <v>168.3625710770537</v>
+        <v>168.3625710770536</v>
       </c>
     </row>
     <row r="5111" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>55.63719212154712</v>
+        <v>55.63719212154711</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41431,7 +41431,7 @@
         <v>5136</v>
       </c>
       <c r="B5136">
-        <v>137.8998881054775</v>
+        <v>137.8998881054774</v>
       </c>
     </row>
     <row r="5137" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>63.49647816532841</v>
+        <v>63.4964781653284</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>47.77497536737921</v>
+        <v>47.7749753673792</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>94.24578461271544</v>
+        <v>94.2457846127154</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>85.27781082967826</v>
+        <v>85.27781082967824</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>59.35890124150754</v>
+        <v>59.35890124150753</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>96.08246081200608</v>
+        <v>96.08246081200606</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41943,7 +41943,7 @@
         <v>5200</v>
       </c>
       <c r="B5200">
-        <v>94.67103068981304</v>
+        <v>94.67103068981302</v>
       </c>
     </row>
     <row r="5201" spans="1:2">
@@ -41991,7 +41991,7 @@
         <v>5206</v>
       </c>
       <c r="B5206">
-        <v>124.489250447373</v>
+        <v>124.4892504473729</v>
       </c>
     </row>
     <row r="5207" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>222.9315192626802</v>
+        <v>222.9315192626801</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42167,7 +42167,7 @@
         <v>5228</v>
       </c>
       <c r="B5228">
-        <v>176.4736051430451</v>
+        <v>176.473605143045</v>
       </c>
     </row>
     <row r="5229" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>98.04955362350104</v>
+        <v>98.049553623501</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>140.1591727425178</v>
+        <v>140.1591727425177</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42383,7 +42383,7 @@
         <v>5255</v>
       </c>
       <c r="B5255">
-        <v>88.80609306412219</v>
+        <v>88.80609306412218</v>
       </c>
     </row>
     <row r="5256" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>73.28094786207609</v>
+        <v>73.28094786207608</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>79.95593383862689</v>
+        <v>79.95593383862688</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>100.1327025663059</v>
+        <v>100.1327025663058</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>50.35048365513511</v>
+        <v>50.3504836551351</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>60.67654863132895</v>
+        <v>60.67654863132894</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42711,7 +42711,7 @@
         <v>5296</v>
       </c>
       <c r="B5296">
-        <v>84.58968003090142</v>
+        <v>84.58968003090141</v>
       </c>
     </row>
     <row r="5297" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>84.55920064288064</v>
+        <v>84.55920064288063</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>72.71268311811174</v>
+        <v>72.71268311811173</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42775,7 +42775,7 @@
         <v>5304</v>
       </c>
       <c r="B5304">
-        <v>49.14303097585037</v>
+        <v>49.14303097585036</v>
       </c>
     </row>
     <row r="5305" spans="1:2">
@@ -42799,7 +42799,7 @@
         <v>5307</v>
       </c>
       <c r="B5307">
-        <v>28.61818177555331</v>
+        <v>28.6181817755533</v>
       </c>
     </row>
     <row r="5308" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>4.17869479054506</v>
+        <v>4.178694790545059</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>36.34637714374139</v>
+        <v>36.34637714374138</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -43071,7 +43071,7 @@
         <v>5341</v>
       </c>
       <c r="B5341">
-        <v>33.36027633082094</v>
+        <v>33.36027633082093</v>
       </c>
     </row>
     <row r="5342" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>46.9751845028724</v>
+        <v>46.97518450287239</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43191,7 +43191,7 @@
         <v>5356</v>
       </c>
       <c r="B5356">
-        <v>43.42111201702626</v>
+        <v>43.42111201702625</v>
       </c>
     </row>
     <row r="5357" spans="1:2">
@@ -43207,7 +43207,7 @@
         <v>5358</v>
       </c>
       <c r="B5358">
-        <v>42.87863752446411</v>
+        <v>42.8786375244641</v>
       </c>
     </row>
     <row r="5359" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>61.35178430440469</v>
+        <v>61.35178430440468</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>96.34270789433737</v>
+        <v>96.34270789433734</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>94.416645028255</v>
+        <v>94.41664502825498</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>74.60299131747742</v>
+        <v>74.6029913174774</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43367,7 +43367,7 @@
         <v>5378</v>
       </c>
       <c r="B5378">
-        <v>61.86641704829401</v>
+        <v>61.866417048294</v>
       </c>
     </row>
     <row r="5379" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>62.79838295123709</v>
+        <v>62.79838295123708</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>147.4566416051853</v>
+        <v>147.4566416051852</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>46.84769860105471</v>
+        <v>46.8476986010547</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>84.02405292628502</v>
+        <v>84.02405292628501</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>7.022685456818621</v>
+        <v>7.02268545681862</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>60.70409730896312</v>
+        <v>60.70409730896311</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>76.76878629318476</v>
+        <v>76.76878629318475</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>7.186570781638045</v>
+        <v>7.186570781638044</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>87.36213205663775</v>
+        <v>87.36213205663773</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44127,7 +44127,7 @@
         <v>5473</v>
       </c>
       <c r="B5473">
-        <v>70.21894165014236</v>
+        <v>70.21894165014234</v>
       </c>
     </row>
     <row r="5474" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>61.66214653434705</v>
+        <v>61.66214653434704</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>6.955513574757441</v>
+        <v>6.95551357475744</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>24.1208894588795</v>
+        <v>24.12088945887949</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>113.2030847485246</v>
+        <v>113.2030847485245</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44319,7 +44319,7 @@
         <v>5497</v>
       </c>
       <c r="B5497">
-        <v>79.07965143302947</v>
+        <v>79.07965143302945</v>
       </c>
     </row>
     <row r="5498" spans="1:2">
@@ -44367,7 +44367,7 @@
         <v>5503</v>
       </c>
       <c r="B5503">
-        <v>7.079805002253717</v>
+        <v>7.079805002253716</v>
       </c>
     </row>
     <row r="5504" spans="1:2">
@@ -44383,7 +44383,7 @@
         <v>5505</v>
       </c>
       <c r="B5505">
-        <v>47.96342004523845</v>
+        <v>47.96342004523844</v>
       </c>
     </row>
     <row r="5506" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>75.30108653156874</v>
+        <v>75.30108653156873</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>58.00403382977614</v>
+        <v>58.00403382977613</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44551,7 +44551,7 @@
         <v>5526</v>
       </c>
       <c r="B5526">
-        <v>54.08274333248734</v>
+        <v>54.08274333248733</v>
       </c>
     </row>
     <row r="5527" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>74.67450065091079</v>
+        <v>74.67450065091077</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>135.5638188563079</v>
+        <v>135.5638188563078</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44903,7 +44903,7 @@
         <v>5570</v>
       </c>
       <c r="B5570">
-        <v>72.80206978490345</v>
+        <v>72.80206978490344</v>
       </c>
     </row>
     <row r="5571" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>54.72486197819435</v>
+        <v>54.72486197819434</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>73.71410685721756</v>
+        <v>73.71410685721754</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45055,7 +45055,7 @@
         <v>5589</v>
       </c>
       <c r="B5589">
-        <v>94.84716638404851</v>
+        <v>94.84716638404848</v>
       </c>
     </row>
     <row r="5590" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>68.0941766198476</v>
+        <v>68.09417661984759</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>20.10499563031082</v>
+        <v>20.10499563031081</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>61.85557341986354</v>
+        <v>61.85557341986353</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>91.89125188811018</v>
+        <v>91.89125188811016</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45447,7 +45447,7 @@
         <v>5638</v>
       </c>
       <c r="B5638">
-        <v>87.09133441691466</v>
+        <v>87.09133441691465</v>
       </c>
     </row>
     <row r="5639" spans="1:2">
@@ -45455,7 +45455,7 @@
         <v>5639</v>
       </c>
       <c r="B5639">
-        <v>71.33437002328743</v>
+        <v>71.33437002328742</v>
       </c>
     </row>
     <row r="5640" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>24.25669857819517</v>
+        <v>24.25669857819516</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>63.98825136820215</v>
+        <v>63.98825136820214</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>50.99758450849936</v>
+        <v>50.99758450849935</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45711,7 +45711,7 @@
         <v>5671</v>
       </c>
       <c r="B5671">
-        <v>5.456044912550533</v>
+        <v>5.456044912550532</v>
       </c>
     </row>
     <row r="5672" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>53.59624540830951</v>
+        <v>53.5962454083095</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>98.64771161340884</v>
+        <v>98.64771161340882</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45799,7 +45799,7 @@
         <v>5682</v>
       </c>
       <c r="B5682">
-        <v>169.8669047185024</v>
+        <v>169.8669047185023</v>
       </c>
     </row>
     <row r="5683" spans="1:2">
@@ -45831,7 +45831,7 @@
         <v>5686</v>
       </c>
       <c r="B5686">
-        <v>99.83464931998728</v>
+        <v>99.83464931998726</v>
       </c>
     </row>
     <row r="5687" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>54.69203802186428</v>
+        <v>54.69203802186427</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>90.22748760162972</v>
+        <v>90.2274876016297</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46063,7 +46063,7 @@
         <v>5715</v>
       </c>
       <c r="B5715">
-        <v>51.7774465423772</v>
+        <v>51.77744654237719</v>
       </c>
     </row>
     <row r="5716" spans="1:2">
@@ -46071,7 +46071,7 @@
         <v>5716</v>
       </c>
       <c r="B5716">
-        <v>47.01826594555561</v>
+        <v>47.0182659455556</v>
       </c>
     </row>
     <row r="5717" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>46.501288633357</v>
+        <v>46.50128863335699</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>63.20135562939644</v>
+        <v>63.20135562939643</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>73.07228128254921</v>
+        <v>73.0722812825492</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46287,7 +46287,7 @@
         <v>5743</v>
       </c>
       <c r="B5743">
-        <v>6.796112236829535</v>
+        <v>6.796112236829534</v>
       </c>
     </row>
     <row r="5744" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>61.11732747347561</v>
+        <v>61.1173274734756</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46463,7 +46463,7 @@
         <v>5765</v>
       </c>
       <c r="B5765">
-        <v>56.15915164140297</v>
+        <v>56.15915164140296</v>
       </c>
     </row>
     <row r="5766" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>17.99869407545173</v>
+        <v>17.99869407545172</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>88.27358298687453</v>
+        <v>88.27358298687452</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>50.87302931706829</v>
+        <v>50.87302931706828</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>75.5918130019208</v>
+        <v>75.59181300192078</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>86.36803509349846</v>
+        <v>86.36803509349845</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -47015,7 +47015,7 @@
         <v>5834</v>
       </c>
       <c r="B5834">
-        <v>59.14261481497547</v>
+        <v>59.14261481497546</v>
       </c>
     </row>
     <row r="5835" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>63.57795191407627</v>
+        <v>63.57795191407626</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>79.81291517176015</v>
+        <v>79.81291517176014</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>45.22496425998684</v>
+        <v>45.22496425998683</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47767,7 +47767,7 @@
         <v>5928</v>
       </c>
       <c r="B5928">
-        <v>63.65473652620554</v>
+        <v>63.65473652620553</v>
       </c>
     </row>
     <row r="5929" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>56.1263276850729</v>
+        <v>56.12632768507289</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>47.46168242705023</v>
+        <v>47.46168242705022</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>5.240696313342177</v>
+        <v>5.240696313342176</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>89.74860952445708</v>
+        <v>89.74860952445707</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -47959,7 +47959,7 @@
         <v>5952</v>
       </c>
       <c r="B5952">
-        <v>78.25113960673384</v>
+        <v>78.25113960673383</v>
       </c>
     </row>
     <row r="5953" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>52.20005498012686</v>
+        <v>52.20005498012685</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>82.08538800554022</v>
+        <v>82.08538800554021</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48287,7 +48287,7 @@
         <v>5993</v>
       </c>
       <c r="B5993">
-        <v>108.6622420755057</v>
+        <v>108.6622420755056</v>
       </c>
     </row>
     <row r="5994" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>48.89362752194956</v>
+        <v>48.89362752194955</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>64.07382811149127</v>
+        <v>64.07382811149125</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>109.4576368744326</v>
+        <v>109.4576368744325</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>92.92051737588882</v>
+        <v>92.92051737588881</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>80.02158175128703</v>
+        <v>80.02158175128702</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48687,7 +48687,7 @@
         <v>6043</v>
       </c>
       <c r="B6043">
-        <v>124.8834309943725</v>
+        <v>124.8834309943724</v>
       </c>
     </row>
     <row r="6044" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>84.44724750611201</v>
+        <v>84.44724750611199</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>72.57493972994091</v>
+        <v>72.57493972994089</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>57.62655833198033</v>
+        <v>57.62655833198032</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>5.515245262360125</v>
+        <v>5.515245262360124</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>62.73478653584758</v>
+        <v>62.73478653584757</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>80.83749152292022</v>
+        <v>80.8374915229202</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48871,7 +48871,7 @@
         <v>6066</v>
       </c>
       <c r="B6066">
-        <v>139.0689484786976</v>
+        <v>139.0689484786975</v>
       </c>
     </row>
     <row r="6067" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>89.02003492234498</v>
+        <v>89.02003492234496</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>30.62973346361318</v>
+        <v>30.62973346361317</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>88.30406237489531</v>
+        <v>88.3040623748953</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>81.60182079174901</v>
+        <v>81.60182079174899</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>51.16111814807239</v>
+        <v>51.16111814807238</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>97.555435852318</v>
+        <v>97.55543585231798</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49503,7 +49503,7 @@
         <v>6145</v>
       </c>
       <c r="B6145">
-        <v>54.3529548301331</v>
+        <v>54.35295483013309</v>
       </c>
     </row>
     <row r="6146" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>93.95300664509274</v>
+        <v>93.95300664509271</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>42.18552451803003</v>
+        <v>42.18552451803002</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>91.85080808477493</v>
+        <v>91.8508080847749</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>66.36886741524826</v>
+        <v>66.36886741524825</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>38.87616634946612</v>
+        <v>38.87616634946611</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>32.62408188170364</v>
+        <v>32.62408188170363</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>87.89464213388541</v>
+        <v>87.8946421338854</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>99.0073097778463</v>
+        <v>99.00730977784627</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>88.00131999195814</v>
+        <v>88.00131999195813</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>61.35881800933256</v>
+        <v>61.35881800933255</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>74.40428915326503</v>
+        <v>74.40428915326501</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>65.69128717386323</v>
+        <v>65.69128717386322</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>41.80599752296359</v>
+        <v>41.80599752296358</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>38.62910746387461</v>
+        <v>38.6291074638746</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50511,7 +50511,7 @@
         <v>6271</v>
       </c>
       <c r="B6271">
-        <v>5.839733516365967</v>
+        <v>5.839733516365966</v>
       </c>
     </row>
     <row r="6272" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>11.25964276984956</v>
+        <v>11.25964276984955</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>7.261245282288956</v>
+        <v>7.261245282288955</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>50.16995189531972</v>
+        <v>50.16995189531971</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -50999,7 +50999,7 @@
         <v>6332</v>
       </c>
       <c r="B6332">
-        <v>64.34081582771175</v>
+        <v>64.34081582771174</v>
       </c>
     </row>
     <row r="6333" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>37.41872407420325</v>
+        <v>37.41872407420324</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51047,7 +51047,7 @@
         <v>6338</v>
       </c>
       <c r="B6338">
-        <v>16.46391035308613</v>
+        <v>16.46391035308612</v>
       </c>
     </row>
     <row r="6339" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>6.243614714745166</v>
+        <v>6.243614714745165</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>37.16140770225859</v>
+        <v>37.16140770225858</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>6.415852564166439</v>
+        <v>6.415852564166438</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>29.85045757181267</v>
+        <v>29.85045757181266</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>11.97066241674585</v>
+        <v>11.97066241674584</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>42.74060106525462</v>
+        <v>42.74060106525461</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51575,7 +51575,7 @@
         <v>6404</v>
       </c>
       <c r="B6404">
-        <v>71.71184552108325</v>
+        <v>71.71184552108323</v>
       </c>
     </row>
     <row r="6405" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>65.69920009190709</v>
+        <v>65.69920009190707</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51743,7 +51743,7 @@
         <v>6425</v>
       </c>
       <c r="B6425">
-        <v>51.32377257452944</v>
+        <v>51.32377257452943</v>
       </c>
     </row>
     <row r="6426" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>48.49622319352478</v>
+        <v>48.49622319352477</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>5.010694162200753</v>
+        <v>5.010694162200752</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>69.80571148562986</v>
+        <v>69.80571148562984</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>75.49715105643318</v>
+        <v>75.49715105643317</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -51983,7 +51983,7 @@
         <v>6455</v>
       </c>
       <c r="B6455">
-        <v>62.73244196753829</v>
+        <v>62.73244196753828</v>
       </c>
     </row>
     <row r="6456" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>33.04962102983991</v>
+        <v>33.0496210298399</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>59.78971566833972</v>
+        <v>59.78971566833971</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>84.74324925515997</v>
+        <v>84.74324925515995</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>76.37079582268265</v>
+        <v>76.37079582268264</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>41.81361736996878</v>
+        <v>41.81361736996877</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>14.43307459068234</v>
+        <v>14.43307459068233</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>5.242308204054814</v>
+        <v>5.242308204054813</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>58.27160768807395</v>
+        <v>58.27160768807394</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>89.99566841004859</v>
+        <v>89.99566841004858</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>69.44933710261766</v>
+        <v>69.44933710261765</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>7.256321688839445</v>
+        <v>7.256321688839444</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52743,7 +52743,7 @@
         <v>6550</v>
       </c>
       <c r="B6550">
-        <v>73.97171630020088</v>
+        <v>73.97171630020087</v>
       </c>
     </row>
     <row r="6551" spans="1:2">
@@ -52823,7 +52823,7 @@
         <v>6560</v>
       </c>
       <c r="B6560">
-        <v>3.407771423346391</v>
+        <v>3.40777142334639</v>
       </c>
     </row>
     <row r="6561" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>31.23873508195146</v>
+        <v>31.23873508195145</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52911,7 +52911,7 @@
         <v>6571</v>
       </c>
       <c r="B6571">
-        <v>59.94035418221165</v>
+        <v>59.94035418221164</v>
       </c>
     </row>
     <row r="6572" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>20.82767950454583</v>
+        <v>20.82767950454582</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53119,7 +53119,7 @@
         <v>6597</v>
       </c>
       <c r="B6597">
-        <v>38.6367273108798</v>
+        <v>38.63672731087979</v>
       </c>
     </row>
     <row r="6598" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>6.58894031959983</v>
+        <v>6.588940319599829</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>44.96735481700352</v>
+        <v>44.96735481700351</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>27.59017649324091</v>
+        <v>27.5901764932409</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>45.92305947407817</v>
+        <v>45.92305947407816</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>7.663983503617376</v>
+        <v>7.663983503617375</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>38.90928337683485</v>
+        <v>38.90928337683484</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>47.3497292902816</v>
+        <v>47.34972929028159</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>55.89714613283973</v>
+        <v>55.89714613283972</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53767,7 +53767,7 @@
         <v>6678</v>
       </c>
       <c r="B6678">
-        <v>9.303686657823738</v>
+        <v>9.303686657823736</v>
       </c>
     </row>
     <row r="6679" spans="1:2">
@@ -53783,7 +53783,7 @@
         <v>6680</v>
       </c>
       <c r="B6680">
-        <v>3.295466601331364</v>
+        <v>3.295466601331363</v>
       </c>
     </row>
     <row r="6681" spans="1:2">
@@ -53871,7 +53871,7 @@
         <v>6691</v>
       </c>
       <c r="B6691">
-        <v>71.0131641649146</v>
+        <v>71.01316416491458</v>
       </c>
     </row>
     <row r="6692" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>58.07525009217085</v>
+        <v>58.07525009217084</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>40.86055035224209</v>
+        <v>40.86055035224208</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>81.53500059493422</v>
+        <v>81.5350005949342</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>55.74416305065851</v>
+        <v>55.7441630506585</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54223,7 +54223,7 @@
         <v>6735</v>
       </c>
       <c r="B6735">
-        <v>87.88936685518951</v>
+        <v>87.88936685518949</v>
       </c>
     </row>
     <row r="6736" spans="1:2">
@@ -54231,7 +54231,7 @@
         <v>6736</v>
       </c>
       <c r="B6736">
-        <v>85.43284540913011</v>
+        <v>85.4328454091301</v>
       </c>
     </row>
     <row r="6737" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>74.36648298927771</v>
+        <v>74.3664829892777</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54327,7 +54327,7 @@
         <v>6748</v>
       </c>
       <c r="B6748">
-        <v>32.42537971749125</v>
+        <v>32.42537971749124</v>
       </c>
     </row>
     <row r="6749" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>6.928287275265801</v>
+        <v>6.9282872752658</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>77.29602109173652</v>
+        <v>77.29602109173651</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>33.08772026486589</v>
+        <v>33.08772026486588</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>3.616643152600332</v>
+        <v>3.616643152600331</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>35.63040459629172</v>
+        <v>35.63040459629171</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54663,7 +54663,7 @@
         <v>6790</v>
       </c>
       <c r="B6790">
-        <v>27.70933917756061</v>
+        <v>27.7093391775606</v>
       </c>
     </row>
     <row r="6791" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>27.60658847140595</v>
+        <v>27.60658847140594</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>21.16752468097753</v>
+        <v>21.16752468097752</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>9.41262116289416</v>
+        <v>9.412621162894158</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>2.334058781844367</v>
+        <v>2.334058781844366</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>19.78587057631248</v>
+        <v>19.78587057631247</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54991,7 +54991,7 @@
         <v>6831</v>
       </c>
       <c r="B6831">
-        <v>20.20074193864148</v>
+        <v>20.20074193864147</v>
       </c>
     </row>
     <row r="6832" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>28.80290445122156</v>
+        <v>28.80290445122155</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>31.86414867845477</v>
+        <v>31.86414867845476</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>55.6418812581657</v>
+        <v>55.64188125816569</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>39.9309290176083</v>
+        <v>39.93092901760829</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>1.673831276658475</v>
+        <v>1.673831276658474</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55295,7 +55295,7 @@
         <v>6869</v>
       </c>
       <c r="B6869">
-        <v>1.361945077315071</v>
+        <v>1.36194507731507</v>
       </c>
     </row>
     <row r="6870" spans="1:2">
@@ -55311,7 +55311,7 @@
         <v>6871</v>
       </c>
       <c r="B6871">
-        <v>1.608397305856556</v>
+        <v>1.608397305856555</v>
       </c>
     </row>
     <row r="6872" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>6.009802640101145</v>
+        <v>6.009802640101144</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>26.66357379030533</v>
+        <v>26.66357379030532</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>58.05766582985117</v>
+        <v>58.05766582985116</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>46.76886249165481</v>
+        <v>46.7688624916548</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>65.5057732063906</v>
+        <v>65.50577320639059</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>1.146177386521429</v>
+        <v>1.146177386521428</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>37.47499371362623</v>
+        <v>37.47499371362622</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>38.54997828343604</v>
+        <v>38.54997828343603</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>7.632009453299424</v>
+        <v>7.632009453299423</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>5.905586578753171</v>
+        <v>5.90558657875317</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>6.620914369917783</v>
+        <v>6.620914369917782</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>63.53457740035439</v>
+        <v>63.53457740035438</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56367,7 +56367,7 @@
         <v>7003</v>
       </c>
       <c r="B7003">
-        <v>83.01794005056063</v>
+        <v>83.01794005056061</v>
       </c>
     </row>
     <row r="7004" spans="1:2">
@@ -56383,7 +56383,7 @@
         <v>7005</v>
       </c>
       <c r="B7005">
-        <v>64.54010413400147</v>
+        <v>64.54010413400145</v>
       </c>
     </row>
     <row r="7006" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>45.42337335316057</v>
+        <v>45.42337335316056</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>68.7075743037658</v>
+        <v>68.70757430376578</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56575,7 +56575,7 @@
         <v>7029</v>
       </c>
       <c r="B7029">
-        <v>62.93114413175068</v>
+        <v>62.93114413175067</v>
       </c>
     </row>
     <row r="7030" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>46.20323538703841</v>
+        <v>46.2032353870384</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>13.089578335251</v>
+        <v>13.08957833525099</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56951,7 +56951,7 @@
         <v>7076</v>
       </c>
       <c r="B7076">
-        <v>71.09258641639182</v>
+        <v>71.09258641639181</v>
       </c>
     </row>
     <row r="7077" spans="1:2">
@@ -56959,7 +56959,7 @@
         <v>7077</v>
       </c>
       <c r="B7077">
-        <v>65.3753565941863</v>
+        <v>65.37535659418629</v>
       </c>
     </row>
     <row r="7078" spans="1:2">
@@ -56999,7 +56999,7 @@
         <v>7082</v>
       </c>
       <c r="B7082">
-        <v>25.13852002642329</v>
+        <v>25.13852002642328</v>
       </c>
     </row>
     <row r="7083" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>14.59030720292415</v>
+        <v>14.59030720292414</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57119,7 +57119,7 @@
         <v>7097</v>
       </c>
       <c r="B7097">
-        <v>49.73649982913959</v>
+        <v>49.73649982913958</v>
       </c>
     </row>
     <row r="7098" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>99.95510151687709</v>
+        <v>99.95510151687708</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>89.2776443653283</v>
+        <v>89.27764436532829</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57175,7 +57175,7 @@
         <v>7104</v>
       </c>
       <c r="B7104">
-        <v>45.82869059962921</v>
+        <v>45.8286905996292</v>
       </c>
     </row>
     <row r="7105" spans="1:2">
@@ -57183,7 +57183,7 @@
         <v>7105</v>
       </c>
       <c r="B7105">
-        <v>41.06716543449834</v>
+        <v>41.06716543449833</v>
       </c>
     </row>
     <row r="7106" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>24.98272346227092</v>
+        <v>24.98272346227091</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>81.55815320698846</v>
+        <v>81.55815320698845</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>77.98092810908808</v>
+        <v>77.98092810908807</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>37.08755380051593</v>
+        <v>37.08755380051592</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>17.85971978891852</v>
+        <v>17.85971978891851</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>13.64418596881373</v>
+        <v>13.64418596881372</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>6.378837691983511</v>
+        <v>6.37883769198351</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>9.899001858656529</v>
+        <v>9.899001858656527</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>33.22517058199806</v>
+        <v>33.22517058199805</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>3.751866129838677</v>
+        <v>3.751866129838676</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58071,7 +58071,7 @@
         <v>7216</v>
       </c>
       <c r="B7216">
-        <v>41.8695939383531</v>
+        <v>41.86959393835309</v>
       </c>
     </row>
     <row r="7217" spans="1:2">
@@ -58087,7 +58087,7 @@
         <v>7218</v>
       </c>
       <c r="B7218">
-        <v>60.91598766991527</v>
+        <v>60.91598766991526</v>
       </c>
     </row>
     <row r="7219" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>30.95738688483657</v>
+        <v>30.95738688483656</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>3.336203475705291</v>
+        <v>3.33620347570529</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>4.758565147640398</v>
+        <v>4.758565147640397</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>3.094156104874886</v>
+        <v>3.094156104874885</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>24.43371348554662</v>
+        <v>24.43371348554661</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>22.26094341911914</v>
+        <v>22.26094341911913</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58479,7 +58479,7 @@
         <v>7267</v>
       </c>
       <c r="B7267">
-        <v>25.02926314321034</v>
+        <v>25.02926314321033</v>
       </c>
     </row>
     <row r="7268" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>1.815982453250774</v>
+        <v>1.815982453250773</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>1.408681115850396</v>
+        <v>1.408681115850395</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>0.8797992580613586</v>
+        <v>0.8797992580613585</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58655,7 +58655,7 @@
         <v>7289</v>
       </c>
       <c r="B7289">
-        <v>20.72736128801205</v>
+        <v>20.72736128801204</v>
       </c>
     </row>
     <row r="7290" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>6.379306605645369</v>
+        <v>6.379306605645368</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58727,7 +58727,7 @@
         <v>7298</v>
       </c>
       <c r="B7298">
-        <v>3.388106356652215</v>
+        <v>3.388106356652214</v>
       </c>
     </row>
     <row r="7299" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>2.266755017815789</v>
+        <v>2.266755017815788</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>5.629718810061247</v>
+        <v>5.629718810061246</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -59015,7 +59015,7 @@
         <v>7334</v>
       </c>
       <c r="B7334">
-        <v>23.45869544702419</v>
+        <v>23.45869544702418</v>
       </c>
     </row>
     <row r="7335" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>24.37885058710922</v>
+        <v>24.37885058710921</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>0.4851585895311509</v>
+        <v>0.4851585895311508</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>0.3901156516932766</v>
+        <v>0.3901156516932765</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>6.165862968188312</v>
+        <v>6.165862968188311</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>1.749335168348797</v>
+        <v>1.749335168348796</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>3.689676455434739</v>
+        <v>3.689676455434738</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>2.556616928603793</v>
+        <v>2.556616928603792</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>33.82655235333114</v>
+        <v>33.82655235333113</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>3.54917819950049</v>
+        <v>3.549178199500489</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>3.066988419590979</v>
+        <v>3.066988419590978</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>3.048056030493456</v>
+        <v>3.048056030493455</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>2.126461911608603</v>
+        <v>2.126461911608602</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>5.785867059460012</v>
+        <v>5.785867059460011</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>36.61131336269124</v>
+        <v>36.61131336269123</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>35.04690015831698</v>
+        <v>35.04690015831697</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>55.54809852579407</v>
+        <v>55.54809852579406</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>51.03070153586809</v>
+        <v>51.03070153586808</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59887,7 +59887,7 @@
         <v>7443</v>
       </c>
       <c r="B7443">
-        <v>8.613943968334262</v>
+        <v>8.61394396833426</v>
       </c>
     </row>
     <row r="7444" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>3.007700148469789</v>
+        <v>3.007700148469788</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>11.22347780367875</v>
+        <v>11.22347780367874</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>31.54821809877784</v>
+        <v>31.54821809877783</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>47.80574782643865</v>
+        <v>47.80574782643864</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>5.954031221443891</v>
+        <v>5.95403122144389</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>2.24337967177216</v>
+        <v>2.243379671772159</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60383,7 +60383,7 @@
         <v>7505</v>
       </c>
       <c r="B7505">
-        <v>0.4428713693627054</v>
+        <v>0.4428713693627053</v>
       </c>
     </row>
     <row r="7506" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>0.6780022636807027</v>
+        <v>0.6780022636807026</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>6.077267593200987</v>
+        <v>6.077267593200986</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>2.805340457694903</v>
+        <v>2.805340457694902</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>0.7817142428421796</v>
+        <v>0.7817142428421795</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>8.417703600846625</v>
+        <v>8.417703600846624</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>1.039358854350142</v>
+        <v>1.039358854350141</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>0.8281249725245902</v>
+        <v>0.8281249725245901</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>1.618136056471273</v>
+        <v>1.618136056471272</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>9.731687602684769</v>
+        <v>9.731687602684763</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>3.624966370098314</v>
+        <v>3.624966370098313</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>1.370112967162563</v>
+        <v>1.370112967162562</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>0.8606705113679326</v>
+        <v>0.8606705113679325</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>0.7929681707267752</v>
+        <v>0.7929681707267751</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>6.596384323981828</v>
+        <v>6.596384323981827</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>6.912021832620097</v>
+        <v>6.912021832620096</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>7.04627767543086</v>
+        <v>7.046277675430859</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.9918813460870036</v>
+        <v>0.9918813460870034</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61703,7 +61703,7 @@
         <v>7670</v>
       </c>
       <c r="B7670">
-        <v>15.27905345088218</v>
+        <v>15.27905345088217</v>
       </c>
     </row>
     <row r="7671" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>8.510226127752011</v>
+        <v>8.510226127752009</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>0.7719344622820504</v>
+        <v>0.7719344622820503</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>5.794835033243048</v>
+        <v>5.794835033243047</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62295,7 +62295,7 @@
         <v>7744</v>
       </c>
       <c r="B7744">
-        <v>8.898662482393759</v>
+        <v>8.898662482393757</v>
       </c>
     </row>
     <row r="7745" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>1.951170261964479</v>
+        <v>1.951170261964478</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>6.772607939528895</v>
+        <v>6.772607939528894</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>25.89862907229536</v>
+        <v>25.89862907229535</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>7.652084819447726</v>
+        <v>7.652084819447725</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>7.075995078751119</v>
+        <v>7.075995078751118</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>4.888512846182838</v>
+        <v>4.888512846182837</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>81.62966254042183</v>
+        <v>81.62966254042182</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63319,7 +63319,7 @@
         <v>7872</v>
       </c>
       <c r="B7872">
-        <v>37.63530357177398</v>
+        <v>37.63530357177397</v>
       </c>
     </row>
     <row r="7873" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>4.703702249202994</v>
+        <v>4.703702249202993</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>6.561450256173395</v>
+        <v>6.561450256173394</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63455,7 +63455,7 @@
         <v>7889</v>
       </c>
       <c r="B7889">
-        <v>9.623603003626462</v>
+        <v>9.62360300362646</v>
       </c>
     </row>
     <row r="7890" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>0.684285706749602</v>
+        <v>0.6842857067496019</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>8.25147370771791</v>
+        <v>8.251473707717908</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>4.669383630575751</v>
+        <v>4.66938363057575</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63903,7 +63903,7 @@
         <v>7945</v>
       </c>
       <c r="B7945">
-        <v>9.410628279831265</v>
+        <v>9.410628279831259</v>
       </c>
     </row>
     <row r="7946" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>5.169890350401596</v>
+        <v>5.169890350401595</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>5.117078949234822</v>
+        <v>5.117078949234821</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>23.61534191718868</v>
+        <v>23.61534191718867</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>32.12996411052061</v>
+        <v>32.1299641105206</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>58.48027426760083</v>
+        <v>58.48027426760082</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>35.04162487962108</v>
+        <v>35.04162487962107</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>2.685656106926383</v>
+        <v>2.685656106926382</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64223,7 +64223,7 @@
         <v>7985</v>
       </c>
       <c r="B7985">
-        <v>22.36389927500087</v>
+        <v>22.36389927500086</v>
       </c>
     </row>
     <row r="7986" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>2.786091551875626</v>
+        <v>2.786091551875625</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>8.611482171609506</v>
+        <v>8.611482171609504</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>3.820093067639038</v>
+        <v>3.820093067639037</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>16.23420127298337</v>
+        <v>16.23420127298336</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>1.175458113994084</v>
+        <v>1.175458113994083</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>0.8918562005918863</v>
+        <v>0.8918562005918862</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>0.8145587141449565</v>
+        <v>0.8145587141449564</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>0.8184213904345131</v>
+        <v>0.818421390434513</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>5.805297669323259</v>
+        <v>5.805297669323258</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>20.06806867943949</v>
+        <v>20.06806867943948</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>2.610943507040446</v>
+        <v>2.610943507040445</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>0.5293918013963077</v>
+        <v>0.5293918013963076</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>0.5210715146087121</v>
+        <v>0.521071514608712</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65415,7 +65415,7 @@
         <v>8134</v>
       </c>
       <c r="B8134">
-        <v>6.981772739821497</v>
+        <v>6.981772739821496</v>
       </c>
     </row>
     <row r="8135" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>0.9104398351534024</v>
+        <v>0.9104398351534022</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>7.15401058924277</v>
+        <v>7.154010589242769</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>7.451126008237641</v>
+        <v>7.45112600823764</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>0.8140370476961394</v>
+        <v>0.8140370476961393</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>0.2441064879480397</v>
+        <v>0.2441064879480396</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>0.7156120700721131</v>
+        <v>0.715612070072113</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>0.9080513061883124</v>
+        <v>0.9080513061883122</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>0.9078373643300895</v>
+        <v>0.9078373643300894</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>0.8691080265709927</v>
+        <v>0.8691080265709926</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>0.951337898598593</v>
+        <v>0.9513378985985927</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>0.8221580461774453</v>
+        <v>0.8221580461774451</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66999,7 +66999,7 @@
         <v>8332</v>
       </c>
       <c r="B8332">
-        <v>0.6796844914426188</v>
+        <v>0.6796844914426187</v>
       </c>
     </row>
     <row r="8333" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>0.5602639046088939</v>
+        <v>0.5602639046088937</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>6.400818019883112</v>
+        <v>6.400818019883111</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>2.742277431595755</v>
+        <v>2.742277431595754</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>0.8856841245176784</v>
+        <v>0.8856841245176783</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>0.1694032663353401</v>
+        <v>0.16940326633534</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>3.043777193329</v>
+        <v>3.043777193328999</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>16.43557038364758</v>
+        <v>16.43557038364757</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>0.8986114880330304</v>
+        <v>0.8986114880330303</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>0.2860241455367333</v>
+        <v>0.2860241455367332</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>7.725557728840125</v>
+        <v>7.725557728840124</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67503,7 +67503,7 @@
         <v>8395</v>
       </c>
       <c r="B8395">
-        <v>6.342174505046978</v>
+        <v>6.342174505046977</v>
       </c>
     </row>
     <row r="8396" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>4.465845794225446</v>
+        <v>4.465845794225445</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>3.970409203368442</v>
+        <v>3.970409203368441</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67879,7 +67879,7 @@
         <v>8442</v>
       </c>
       <c r="B8442">
-        <v>1.88557217138091</v>
+        <v>1.885572171380909</v>
       </c>
     </row>
     <row r="8443" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>7.763715578073833</v>
+        <v>7.763715578073832</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>5.861450080330772</v>
+        <v>5.861450080330771</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>5.402764597721901</v>
+        <v>5.4027645977219</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>6.223246277558203</v>
+        <v>6.223246277558202</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>4.769701847109529</v>
+        <v>4.769701847109528</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>3.2310495870336</v>
+        <v>3.231049587033599</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>1.197974761894435</v>
+        <v>1.197974761894434</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>0.7660495958257306</v>
+        <v>0.7660495958257305</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>0.8169531045308197</v>
+        <v>0.8169531045308196</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>0.2538886130764781</v>
+        <v>0.253888613076478</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>0.6046319291518349</v>
+        <v>0.6046319291518348</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>0.9811989067277974</v>
+        <v>0.9811989067277972</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>0.6269082588004837</v>
+        <v>0.6269082588004836</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69207,7 +69207,7 @@
         <v>8608</v>
       </c>
       <c r="B8608">
-        <v>7.345766969838888</v>
+        <v>7.345766969838887</v>
       </c>
     </row>
     <row r="8609" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>3.874106060064324</v>
+        <v>3.874106060064323</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69319,7 +69319,7 @@
         <v>8622</v>
       </c>
       <c r="B8622">
-        <v>0.7546374095802578</v>
+        <v>0.7546374095802577</v>
       </c>
     </row>
     <row r="8623" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>2.795329151014231</v>
+        <v>2.79532915101423</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>4.086904941236327</v>
+        <v>4.086904941236326</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69535,7 +69535,7 @@
         <v>8649</v>
       </c>
       <c r="B8649">
-        <v>0.2049574724615799</v>
+        <v>0.2049574724615798</v>
       </c>
     </row>
     <row r="8650" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>0.8182045178659036</v>
+        <v>0.8182045178659035</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>6.747198680476957</v>
+        <v>6.747198680476956</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>8.593663452458896</v>
+        <v>8.593663452458895</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>4.265854117442944</v>
+        <v>4.265854117442943</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>1.170062676172329</v>
+        <v>1.170062676172328</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>3.601374151486076</v>
+        <v>3.601374151486075</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>3.076601149659071</v>
+        <v>3.07660114965907</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>5.37600721189212</v>
+        <v>5.376007211892119</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>0.9141589066340148</v>
+        <v>0.9141589066340146</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70135,7 +70135,7 @@
         <v>8724</v>
       </c>
       <c r="B8724">
-        <v>8.541907107031303</v>
+        <v>8.541907107031301</v>
       </c>
     </row>
     <row r="8725" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>17.85063458672002</v>
+        <v>17.85063458672001</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>18.08506211054523</v>
+        <v>18.08506211054522</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>7.513550139472508</v>
+        <v>7.513550139472507</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>0.7964586467972319</v>
+        <v>0.7964586467972318</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>0.8587245196712213</v>
+        <v>0.8587245196712212</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
